--- a/StructureDefinition-patientReligion.xlsx
+++ b/StructureDefinition-patientReligion.xlsx
@@ -441,7 +441,7 @@
 </t>
   </si>
   <si>
-    <t>http://hl7.at/fhir/4.0/HL7ATBaseProfiles/StructureDefinition/patientReligion</t>
+    <t>http://hl7.at/fhir/4.0.1/HL7ATCoreProfiles/StructureDefinition/patientReligion</t>
   </si>
   <si>
     <t>base64Binary

--- a/StructureDefinition-patientReligion.xlsx
+++ b/StructureDefinition-patientReligion.xlsx
@@ -441,7 +441,7 @@
 </t>
   </si>
   <si>
-    <t>http://hl7.at/fhir/4.0.1/HL7ATCoreProfiles/StructureDefinition/patientReligion</t>
+    <t>http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/patientReligion</t>
   </si>
   <si>
     <t>base64Binary
